--- a/xlsx/c_RobotAiData.xlsx
+++ b/xlsx/c_RobotAiData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92C4FEC-F39F-49D2-B156-1D952257EDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C27AD7-CA99-4243-9964-60FD182BC16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="2535" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>PlayerRobotBase</t>
-  </si>
-  <si>
-    <t>【血量低于这个比例吃杂鱼，高于则吃玩家】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0.5</t>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>怂货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【血量低于这个比例吃躲草丛，高于则吃玩家】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,16 +1353,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
